--- a/data/case1/5/Q2_3.xlsx
+++ b/data/case1/5/Q2_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.24999111125313078</v>
+        <v>0.2564814264887687</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999677877724</v>
+        <v>-0.0059999999671198623</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.003999999970691448</v>
+        <v>-0.0039999999707198697</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999479269945</v>
+        <v>-0.007999999946630254</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999716228132</v>
+        <v>-0.0029999999695942137</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.035186855706209386</v>
+        <v>-0.0019999999672659641</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999316171539</v>
+        <v>-0.0099999999257756045</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.00999999993157763</v>
+        <v>-0.0099999999261357608</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999738020691</v>
+        <v>-0.0019999999694699788</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999748563368</v>
+        <v>0.03688940217286607</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999697576385</v>
+        <v>-0.0029999999659882093</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999674822924</v>
+        <v>-0.0034999999629192757</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999699127926</v>
+        <v>-0.0034999999615248356</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999477511352</v>
+        <v>-0.0079999999377626807</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999998524324951</v>
+        <v>-0.00099999997434174759</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999818631764</v>
+        <v>-0.0019999999691386883</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.034768688420848903</v>
+        <v>-0.0019999999693691706</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999751385573</v>
+        <v>0.0025005020747723705</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999772768469</v>
+        <v>-0.0039999999766973104</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999685420562</v>
+        <v>-0.066578075142585291</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.003999999966549872</v>
+        <v>-0.0039999999666040509</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.052278815416175739</v>
+        <v>-0.0039999999664335206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999625516267</v>
+        <v>-0.0049999999638661308</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.05549555624270841</v>
+        <v>-0.019999999882597486</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999877696517</v>
+        <v>-0.019999999881148867</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999686166063</v>
+        <v>-0.002499999963253785</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999670547446</v>
+        <v>-0.0024999999612012047</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999601383323</v>
+        <v>-0.0019999999547604119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999279097835</v>
+        <v>-0.0069999999223613329</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.05999999965110181</v>
+        <v>-0.059999999641908275</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999228151921</v>
+        <v>-0.006999999916965649</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999071194168</v>
+        <v>-0.009999999900943024</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999380953</v>
+        <v>-0.0039999999322386515</v>
       </c>
     </row>
   </sheetData>
